--- a/public/images/demo_file/seasonalityAvg.xlsx
+++ b/public/images/demo_file/seasonalityAvg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6540B-F861-4AB8-80CA-7525B5DCDC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A614262-3603-4517-A632-6F09344C13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,25 +47,25 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>тип_01</t>
+    <t>категория_01</t>
   </si>
   <si>
-    <t>тип_02</t>
+    <t>категория_02</t>
   </si>
   <si>
-    <t>тип_03</t>
+    <t>категория_03</t>
   </si>
   <si>
-    <t>тип_04</t>
+    <t>категория_04</t>
   </si>
   <si>
-    <t>тип_05</t>
+    <t>категория_05</t>
   </si>
   <si>
-    <t>тип_06</t>
+    <t>категория_06</t>
   </si>
   <si>
-    <t>тип_07</t>
+    <t>категория_07</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/public/images/demo_file/seasonalityAvg.xlsx
+++ b/public/images/demo_file/seasonalityAvg.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A614262-3603-4517-A632-6F09344C13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FD312-5D4F-4DCF-8FB6-BD33B32FBF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$365</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,25 +50,25 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>категория_01</t>
+    <t>Живое пиво</t>
   </si>
   <si>
-    <t>категория_02</t>
+    <t>Безалкогольное пиво</t>
   </si>
   <si>
-    <t>категория_03</t>
+    <t>Темное пиво</t>
   </si>
   <si>
-    <t>категория_04</t>
+    <t>Лагер</t>
   </si>
   <si>
-    <t>категория_05</t>
+    <t>Напиток на основе пива</t>
   </si>
   <si>
-    <t>категория_06</t>
+    <t>Пшеничное пиво</t>
   </si>
   <si>
-    <t>категория_07</t>
+    <t>Энергетик</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,13 @@
   <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -410,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.93905955019882104</v>
+        <v>1.2590595501988211</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -421,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.92053520236424802</v>
+        <v>1.290535202364248</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -432,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.08567016624929</v>
+        <v>1.4856701662492902</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -443,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.91390262891778895</v>
+        <v>1.3339026289177889</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -454,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.56111869801116798</v>
+        <v>1.1811186980111681</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -905,7 +911,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>0.86325355630807898</v>
+        <v>0.91325355630807903</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -916,7 +922,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>0.81950459605800796</v>
+        <v>0.81950459605800785</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -927,7 +933,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>0.82236975793613598</v>
+        <v>0.92236975793613596</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -949,7 +955,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>0.98386868533817895</v>
+        <v>0.93386868533817891</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -960,7 +966,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>0.99481839992439103</v>
+        <v>0.94481839992439098</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -971,7 +977,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>1.10296162190112</v>
+        <v>1.1529616219011201</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -982,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0.77684261352737005</v>
+        <v>0.99684261352737003</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -993,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>0.65810653003522501</v>
+        <v>0.92810653003522503</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1004,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.70461715588166096</v>
+        <v>1.004617155881661</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1015,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>0.69739931278613698</v>
+        <v>1.117399312786137</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1026,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>0.723110835103424</v>
+        <v>1.343110835103424</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1477,7 +1483,7 @@
         <v>46</v>
       </c>
       <c r="C99">
-        <v>0.86851173342097499</v>
+        <v>0.91851173342097492</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1499,7 +1505,7 @@
         <v>48</v>
       </c>
       <c r="C101">
-        <v>0.82000329814407902</v>
+        <v>0.920003298144079</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1510,7 +1516,7 @@
         <v>49</v>
       </c>
       <c r="C102">
-        <v>0.78674842671648404</v>
+        <v>0.78674842671648393</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1521,7 +1527,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.78326811608302904</v>
+        <v>0.73326811608302911</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1532,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="C104">
-        <v>0.78741254881048806</v>
+        <v>0.73741254881048801</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1543,7 +1549,7 @@
         <v>52</v>
       </c>
       <c r="C105">
-        <v>1.0396749379827599</v>
+        <v>1.0896749379827599</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1554,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>0.494192730011496</v>
+        <v>0.71419273001149597</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1565,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>0.36347299850689102</v>
+        <v>0.63347299850689098</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1576,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>0.46739604392119599</v>
+        <v>0.76739604392119598</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1587,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <v>0.47856132979215399</v>
+        <v>0.89856132979215397</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1598,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="C110">
-        <v>0.32482393203049598</v>
+        <v>0.94482393203049597</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -2049,7 +2055,7 @@
         <v>46</v>
       </c>
       <c r="C151">
-        <v>1.0216380522111901</v>
+        <v>1.0716380522111901</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -2060,7 +2066,7 @@
         <v>47</v>
       </c>
       <c r="C152">
-        <v>0.92093367957657202</v>
+        <v>0.92093367957657191</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -2071,7 +2077,7 @@
         <v>48</v>
       </c>
       <c r="C153">
-        <v>0.95863155851306303</v>
+        <v>1.058631558513063</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -2093,7 +2099,7 @@
         <v>50</v>
       </c>
       <c r="C155">
-        <v>0.89276390074568601</v>
+        <v>0.84276390074568608</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -2104,7 +2110,7 @@
         <v>51</v>
       </c>
       <c r="C156">
-        <v>0.92867262988852795</v>
+        <v>0.87867262988852801</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -2115,7 +2121,7 @@
         <v>52</v>
       </c>
       <c r="C157">
-        <v>0.96139367838775103</v>
+        <v>1.0113936783877511</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -2126,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>0.80447639772894197</v>
+        <v>1.0244763977289419</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -2137,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>0.75626831741913303</v>
+        <v>1.0262683174191332</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -2148,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>0.77370169670693301</v>
+        <v>1.0737016967069331</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -2159,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>0.74867860515708795</v>
+        <v>1.1686786051570879</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -2170,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>0.70600023331967898</v>
+        <v>1.326000233319679</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -2621,7 +2627,7 @@
         <v>46</v>
       </c>
       <c r="C203">
-        <v>1.0605626252809</v>
+        <v>1.1105626252809</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -2643,7 +2649,7 @@
         <v>48</v>
       </c>
       <c r="C205">
-        <v>1.01930832036295</v>
+        <v>1.1193083203629501</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -2654,7 +2660,7 @@
         <v>49</v>
       </c>
       <c r="C206">
-        <v>0.95414324035276599</v>
+        <v>0.95414324035276588</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -2665,7 +2671,7 @@
         <v>50</v>
       </c>
       <c r="C207">
-        <v>0.990857359516505</v>
+        <v>0.94085735951650495</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -2676,7 +2682,7 @@
         <v>51</v>
       </c>
       <c r="C208">
-        <v>1.01339623427581</v>
+        <v>0.96339623427581011</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -2687,7 +2693,7 @@
         <v>52</v>
       </c>
       <c r="C209">
-        <v>1.1610443396221</v>
+        <v>1.2110443396221</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -2698,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>0.82640667310971105</v>
+        <v>1.046406673109711</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -2709,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C211">
-        <v>0.74062344129606295</v>
+        <v>1.0106234412960631</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -2720,7 +2726,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.79467731086309401</v>
+        <v>1.0946773108630941</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -2731,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>0.754174163704453</v>
+        <v>1.1741741637044529</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -2742,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="C214">
-        <v>0.78439374374487503</v>
+        <v>1.404393743744875</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -3193,7 +3199,7 @@
         <v>46</v>
       </c>
       <c r="C255">
-        <v>0.84710305043218304</v>
+        <v>0.89710305043218308</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -3204,7 +3210,7 @@
         <v>47</v>
       </c>
       <c r="C256">
-        <v>0.80468226532688203</v>
+        <v>0.80468226532688192</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -3215,7 +3221,7 @@
         <v>48</v>
       </c>
       <c r="C257">
-        <v>0.79971084917357305</v>
+        <v>0.89971084917357291</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -3226,7 +3232,7 @@
         <v>49</v>
       </c>
       <c r="C258">
-        <v>0.74500803716680897</v>
+        <v>0.74500803716680886</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -3237,7 +3243,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.74787946006658601</v>
+        <v>0.69787946006658597</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -3248,7 +3254,7 @@
         <v>51</v>
       </c>
       <c r="C260">
-        <v>0.77250114545625403</v>
+        <v>0.7225011454562541</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -3259,7 +3265,7 @@
         <v>52</v>
       </c>
       <c r="C261">
-        <v>0.90243093812967801</v>
+        <v>0.95243093812967805</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -3270,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>1.0553555387446301</v>
+        <v>1.27535553874463</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -3281,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="C263">
-        <v>0.90635201805713395</v>
+        <v>1.1763520180571341</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -3292,7 +3298,7 @@
         <v>3</v>
       </c>
       <c r="C264">
-        <v>0.99437615023868198</v>
+        <v>1.2943761502386819</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -3303,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="C265">
-        <v>0.91749050610244298</v>
+        <v>1.3374905061024429</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -3314,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="C266">
-        <v>0.72798253397987001</v>
+        <v>1.3479825339798699</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -3765,7 +3771,7 @@
         <v>46</v>
       </c>
       <c r="C307">
-        <v>0.97715157263818297</v>
+        <v>1.027151572638183</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -3776,7 +3782,7 @@
         <v>47</v>
       </c>
       <c r="C308">
-        <v>0.92650421147738904</v>
+        <v>0.92650421147738893</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -3787,7 +3793,7 @@
         <v>48</v>
       </c>
       <c r="C309">
-        <v>0.96104637379894597</v>
+        <v>1.061046373798946</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -3798,7 +3804,7 @@
         <v>49</v>
       </c>
       <c r="C310">
-        <v>0.939723279965479</v>
+        <v>0.93972327996547889</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -3809,7 +3815,7 @@
         <v>50</v>
       </c>
       <c r="C311">
-        <v>0.95141546270686395</v>
+        <v>0.9014154627068639</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -3820,7 +3826,7 @@
         <v>51</v>
       </c>
       <c r="C312">
-        <v>0.95850243120866796</v>
+        <v>0.90850243120866792</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -3831,7 +3837,7 @@
         <v>52</v>
       </c>
       <c r="C313">
-        <v>1.2062696782585001</v>
+        <v>1.1562696782585</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -3842,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>0.47412284184772902</v>
+        <v>0.69412284184772899</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -3853,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>0.78892422544469398</v>
+        <v>1.058924225444694</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -3864,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="C316">
-        <v>0.68369680392209997</v>
+        <v>0.9836968039220999</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -3875,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="C317">
-        <v>0.84573159712087898</v>
+        <v>1.2657315971208789</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -3886,7 +3892,7 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>0.67789519299040701</v>
+        <v>1.297895192990407</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -4337,7 +4343,7 @@
         <v>46</v>
       </c>
       <c r="C359">
-        <v>1.3786312493322801</v>
+        <v>1.4286312493322801</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -4348,7 +4354,7 @@
         <v>47</v>
       </c>
       <c r="C360">
-        <v>1.3482443088566101</v>
+        <v>1.3482443088566103</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -4359,7 +4365,7 @@
         <v>48</v>
       </c>
       <c r="C361">
-        <v>1.36597968839715</v>
+        <v>1.4659796883971501</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -4381,7 +4387,7 @@
         <v>50</v>
       </c>
       <c r="C363">
-        <v>1.3003204377925099</v>
+        <v>1.2503204377925099</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -4392,7 +4398,7 @@
         <v>51</v>
       </c>
       <c r="C364">
-        <v>2.0127948235414301</v>
+        <v>1.9627948235414301</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -4403,7 +4409,7 @@
         <v>52</v>
       </c>
       <c r="C365">
-        <v>1.6849300928534401</v>
+        <v>1.63493009285344</v>
       </c>
     </row>
   </sheetData>
